--- a/Report Creator/test_subjects/Marks Sheet Term II 2024/A level Marks Sheet Term II 2024/Marksheet A level - GEOGRAPHY.xlsx
+++ b/Report Creator/test_subjects/Marks Sheet Term II 2024/A level Marks Sheet Term II 2024/Marksheet A level - GEOGRAPHY.xlsx
@@ -8,11 +8,16 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="6WV8Y/nML9Vbll6195R1I5Vn3GMOEa9MSQQHavqOvQ8="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>Student ID</t>
   </si>
@@ -87,6 +92,12 @@
   </si>
   <si>
     <t>RUBANGAKENE ARON</t>
+  </si>
+  <si>
+    <t>ACEN BRENDA FASSY</t>
+  </si>
+  <si>
+    <t>PILOYA MERCY</t>
   </si>
   <si>
     <t>ACII AGNESS</t>
@@ -147,7 +158,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -156,6 +167,15 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -174,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -182,6 +202,13 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -444,11 +471,22 @@
         <v>9</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <v>20.0</v>
+      </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="F2" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>35.0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>57.0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>36.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1"/>
@@ -470,9 +508,18 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="F4" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>32.0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>76.0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>49.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1"/>
@@ -492,11 +539,22 @@
         <v>13</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <v>20.0</v>
+      </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>41.0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>40.0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
@@ -528,11 +586,24 @@
         <v>16</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="D9" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>68.0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>49.0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>77.0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>69.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1"/>
@@ -552,10 +623,16 @@
         <v>18</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>50.0</v>
+      </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="1">
+        <v>62.0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>55.0</v>
+      </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12">
@@ -564,10 +641,14 @@
         <v>19</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>24.0</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="3">
+        <v>20.0</v>
+      </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13">
@@ -576,11 +657,22 @@
         <v>20</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="D13" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>42.0</v>
+      </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="3">
+        <v>79.0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>60.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
@@ -603,7 +695,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" ht="15.0" customHeight="1">
@@ -612,11 +704,24 @@
         <v>23</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="D16" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>45.0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>44.0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>33.0</v>
+      </c>
     </row>
     <row r="17" ht="15.0" customHeight="1">
       <c r="A17" s="1"/>
@@ -626,9 +731,52 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="F17" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>51.0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>71.0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="5">
+        <v>26.0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>28.0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>41.0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="4">
+        <v>43.0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>72.0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>43.0</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -1668,7 +1816,7 @@
     </row>
     <row r="2">
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1678,27 +1826,33 @@
     </row>
     <row r="3">
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>74.0</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4">
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>40.0</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5">
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1708,17 +1862,19 @@
     </row>
     <row r="6">
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>12.0</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7">
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1728,7 +1884,7 @@
     </row>
     <row r="8">
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1738,7 +1894,7 @@
     </row>
     <row r="9">
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1748,7 +1904,7 @@
     </row>
     <row r="10">
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1758,17 +1914,19 @@
     </row>
     <row r="11">
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1">
+        <v>66.0</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12">
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1778,7 +1936,7 @@
     </row>
     <row r="13">
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1788,17 +1946,21 @@
     </row>
     <row r="14">
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="E14" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>68.0</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15">
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1808,17 +1970,21 @@
     </row>
     <row r="16">
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="E16" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>30.0</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" ht="15.0" customHeight="1">
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1828,21 +1994,27 @@
     </row>
     <row r="18" ht="15.0" customHeight="1">
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="E18" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>70.0</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" ht="15.0" customHeight="1">
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>44.0</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
